--- a/irasutoya_athletics.xlsx
+++ b/irasutoya_athletics.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10001244143\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9FD604-8ACB-45E8-800A-1D713A8798A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4555CDA-19B7-4020-A49F-95120BD86622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9AE1E002-9FD8-4F2D-AB4D-A1FBA76A907C}"/>
   </bookViews>
@@ -115,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1464,17 +1459,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685FFF0E-786F-4531-AF05-13B3ED694F9C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1485,49 +1480,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="63.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="63.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="63.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="63.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="63.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="63.5" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="63.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1537,6 +1532,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>